--- a/职业、技能、属性.xlsx
+++ b/职业、技能、属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="4155" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="职业" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,23 +393,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>职业分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑到使用禁忌的力量，会被多数阵营追杀，及有攻击间隔长但伤害大等特点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>利用魔法间接进行攻击或进行辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,6 +427,94 @@
   </si>
   <si>
     <t>readOnlyTestRange_General</t>
+  </si>
+  <si>
+    <t>参考splatoon中人物属性的表示方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到使用禁忌的力量，会被多数阵营追杀，及有攻击间隔长但伤害大等特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过技能的方式来限制该专精？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量归类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考wow？每个职业提供一个专精？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业名称（暂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了将能量编织成武器之外，还可以将能量织入物品，食物中，换言之可以制造魔法食物之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以圣光直接惩治敌人，或是治疗队友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤邪神来为自身抵挡伤害或为自己回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于信仰的目标不同而提供不同的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信奉自身力量，因自信而无所畏惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将星辰以不同的形式排列能够释放出不同的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,6 +625,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,30 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +656,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -903,270 +969,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="5" width="55" customWidth="1"/>
-    <col min="6" max="9" width="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="6" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22">
+        <v>42772</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="22">
+        <v>42774</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="J7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
+      <c r="J9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="I12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="I13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="G14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>89</v>
       </c>
@@ -1175,62 +1294,233 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A4:A11"/>
+  <mergeCells count="13">
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A6:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,10 +1577,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -1305,36 +1595,36 @@
       <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
@@ -1349,36 +1639,36 @@
       <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
@@ -1393,39 +1683,39 @@
       <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" t="s">
         <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C19" t="s">
@@ -1440,66 +1730,66 @@
       <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="14"/>
       <c r="B29" t="s">
         <v>64</v>
       </c>
@@ -1508,7 +1798,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="14"/>
       <c r="B30" t="s">
         <v>71</v>
       </c>
@@ -1517,10 +1807,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
+      <c r="A31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -1531,7 +1821,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
@@ -1540,7 +1830,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
         <v>72</v>
       </c>
@@ -1549,7 +1839,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
+      <c r="A35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1575,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,131 +1883,136 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1738,30 +2033,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/职业、技能、属性.xlsx
+++ b/职业、技能、属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4155" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4605" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="职业" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
   <si>
     <t>力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +514,22 @@
   </si>
   <si>
     <t>将星辰以不同的形式排列能够释放出不同的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师的孱弱体质在灌下魔药之后变得强大无比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑两个路线，一是灌下魔药之后增加力量，二是通过丢砸魔药的方式来削弱敌人或提升队友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他可能的特殊能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d/m/yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +550,33 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -612,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -629,7 +672,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,6 +691,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,15 +711,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -969,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -981,38 +1030,39 @@
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="34.625" customWidth="1"/>
     <col min="6" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="42.5" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="22">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="12">
         <v>42772</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="12">
         <v>42774</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -1038,489 +1088,545 @@
       <c r="I5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="N7" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="3" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="2" t="s">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="M16" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="21"/>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="21"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="21"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="25"/>
+      <c r="M22" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E13:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1532,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1577,10 +1683,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -1595,36 +1701,36 @@
       <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
@@ -1639,36 +1745,36 @@
       <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
@@ -1683,39 +1789,39 @@
       <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C19" t="s">
@@ -1730,66 +1836,66 @@
       <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="G28" s="15"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
+      <c r="A29" s="20"/>
       <c r="B29" t="s">
         <v>64</v>
       </c>
@@ -1798,7 +1904,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
+      <c r="A30" s="20"/>
       <c r="B30" t="s">
         <v>71</v>
       </c>
@@ -1807,10 +1913,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
+      <c r="A31" s="20"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -1821,7 +1927,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
+      <c r="A33" s="20"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
@@ -1830,7 +1936,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
+      <c r="A34" s="20"/>
       <c r="B34" t="s">
         <v>72</v>
       </c>
@@ -1839,7 +1945,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
+      <c r="A35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1916,7 +2022,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1931,7 +2037,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1946,7 +2052,7 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1961,7 +2067,7 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2038,7 +2144,7 @@
       <c r="B1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="7" t="s">
